--- a/Калькулятор для бота  7 (1).xlsx
+++ b/Калькулятор для бота  7 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwe\Desktop\fence-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90B79AB-5C8A-4EDB-8CD6-177DC32B24BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE68ACA-08D5-4C97-8449-7A8767533DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="23160" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вводные" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="377">
   <si>
     <t>&gt;</t>
   </si>
@@ -1325,16 +1323,10 @@
     <t>индивидуальная</t>
   </si>
   <si>
-    <t>Скидка</t>
-  </si>
-  <si>
     <t xml:space="preserve">Не стандартный цвет  </t>
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>договорная</t>
   </si>
   <si>
     <t>Верхняя  стяжка на ворота съемная</t>
@@ -1988,7 +1980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2246,9 +2238,9 @@
   </sheetPr>
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185:A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2261,7 +2253,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6">
+    <row r="1" spans="1:14">
       <c r="A1" s="85"/>
       <c r="B1" s="87" t="s">
         <v>0</v>
@@ -2279,7 +2271,7 @@
       <c r="M1" s="85"/>
       <c r="N1" s="85"/>
     </row>
-    <row r="2" spans="1:14" ht="39.6">
+    <row r="2" spans="1:14" ht="25.5">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -8061,7 +8053,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="15" outlineLevel="1">
+    <row r="174" spans="1:14" ht="30" outlineLevel="1">
       <c r="A174" s="61" t="s">
         <v>340</v>
       </c>
@@ -8096,7 +8088,7 @@
         <v>50.160000000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="15" outlineLevel="1">
+    <row r="175" spans="1:14" ht="30" outlineLevel="1">
       <c r="A175" s="62" t="s">
         <v>342</v>
       </c>
@@ -8394,7 +8386,7 @@
         <v>182.4</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="13.15">
+    <row r="184" spans="1:14" ht="12.75">
       <c r="A184" s="97" t="s">
         <v>359</v>
       </c>
@@ -8423,12 +8415,12 @@
         <v>146</v>
       </c>
       <c r="D185" s="65"/>
-      <c r="E185" s="66">
-        <v>9450</v>
-      </c>
-      <c r="F185" s="67">
+      <c r="E185" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" s="67" t="e">
         <f t="shared" ref="F185:F193" si="42">D185*E185</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G185" s="85"/>
       <c r="H185" s="7"/>
@@ -8450,12 +8442,12 @@
         <v>146</v>
       </c>
       <c r="D186" s="65"/>
-      <c r="E186" s="66">
-        <v>6000</v>
-      </c>
-      <c r="F186" s="67">
+      <c r="E186" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" s="67" t="e">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G186" s="85"/>
       <c r="H186" s="85"/>
@@ -8470,8 +8462,8 @@
       <c r="A187" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="B187" s="69" t="s">
-        <v>363</v>
+      <c r="B187" s="68" t="s">
+        <v>362</v>
       </c>
       <c r="C187" s="65" t="s">
         <v>146</v>
@@ -8498,7 +8490,7 @@
         <v>363</v>
       </c>
       <c r="B188" s="69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C188" s="65" t="s">
         <v>146</v>
@@ -8525,18 +8517,18 @@
         <v>365</v>
       </c>
       <c r="B189" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="C189" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="C189" s="71" t="s">
-        <v>367</v>
-      </c>
       <c r="D189" s="72"/>
-      <c r="E189" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="F189" s="11" t="e">
+      <c r="E189" s="65">
+        <v>250</v>
+      </c>
+      <c r="F189" s="11">
         <f t="shared" si="42"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G189" s="85"/>
       <c r="H189" s="85"/>
@@ -8549,13 +8541,13 @@
     </row>
     <row r="190" spans="1:14" ht="15">
       <c r="A190" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="B190" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="C190" s="71" t="s">
         <v>366</v>
-      </c>
-      <c r="B190" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="C190" s="71" t="s">
-        <v>367</v>
       </c>
       <c r="D190" s="72"/>
       <c r="E190" s="65">
@@ -8576,13 +8568,13 @@
     </row>
     <row r="191" spans="1:14" ht="15">
       <c r="A191" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B191" s="69" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C191" s="71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D191" s="72"/>
       <c r="E191" s="65">
@@ -8603,13 +8595,13 @@
     </row>
     <row r="192" spans="1:14" ht="15">
       <c r="A192" s="69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B192" s="69" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C192" s="71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D192" s="72"/>
       <c r="E192" s="65">
@@ -8630,13 +8622,13 @@
     </row>
     <row r="193" spans="1:14" ht="15">
       <c r="A193" s="69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B193" s="69" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C193" s="71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D193" s="72"/>
       <c r="E193" s="65">
@@ -8657,13 +8649,13 @@
     </row>
     <row r="194" spans="1:14" ht="15">
       <c r="A194" s="69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B194" s="69" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C194" s="71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D194" s="71"/>
       <c r="E194" s="66">
@@ -8680,12 +8672,10 @@
       <c r="N194" s="85"/>
     </row>
     <row r="195" spans="1:14" ht="15">
-      <c r="A195" s="69" t="s">
-        <v>373</v>
-      </c>
+      <c r="A195" s="69"/>
       <c r="B195" s="71"/>
       <c r="C195" s="71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D195" s="71"/>
       <c r="E195" s="66"/>
@@ -8798,7 +8788,7 @@
     <row r="202" spans="1:14" ht="15">
       <c r="A202" s="1"/>
       <c r="B202" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C202" s="75"/>
       <c r="D202" s="75"/>
@@ -8816,7 +8806,7 @@
       <c r="M202" s="85"/>
       <c r="N202" s="85"/>
     </row>
-    <row r="203" spans="1:14" ht="13.15">
+    <row r="203" spans="1:14" ht="12.75">
       <c r="A203" s="85"/>
       <c r="B203" s="85"/>
       <c r="C203" s="85"/>
@@ -8832,7 +8822,7 @@
       <c r="M203" s="85"/>
       <c r="N203" s="85"/>
     </row>
-    <row r="204" spans="1:14" ht="13.15">
+    <row r="204" spans="1:14" ht="12.75">
       <c r="A204" s="85"/>
       <c r="B204" s="85"/>
       <c r="C204" s="85"/>
@@ -8848,7 +8838,7 @@
       <c r="M204" s="85"/>
       <c r="N204" s="85"/>
     </row>
-    <row r="205" spans="1:14" ht="13.15">
+    <row r="205" spans="1:14" ht="12.75">
       <c r="A205" s="85"/>
       <c r="B205" s="85"/>
       <c r="C205" s="85"/>
@@ -8864,7 +8854,7 @@
       <c r="M205" s="85"/>
       <c r="N205" s="85"/>
     </row>
-    <row r="206" spans="1:14" ht="13.15">
+    <row r="206" spans="1:14" ht="12.75">
       <c r="A206" s="85"/>
       <c r="B206" s="85"/>
       <c r="C206" s="85"/>
@@ -8880,7 +8870,7 @@
       <c r="M206" s="85"/>
       <c r="N206" s="85"/>
     </row>
-    <row r="207" spans="1:14" ht="13.15">
+    <row r="207" spans="1:14" ht="12.75">
       <c r="A207" s="85"/>
       <c r="B207" s="85"/>
       <c r="C207" s="85"/>
@@ -8896,7 +8886,7 @@
       <c r="M207" s="85"/>
       <c r="N207" s="85"/>
     </row>
-    <row r="208" spans="1:14" ht="13.15">
+    <row r="208" spans="1:14" ht="12.75">
       <c r="A208" s="85"/>
       <c r="B208" s="85"/>
       <c r="C208" s="85"/>
@@ -8912,7 +8902,7 @@
       <c r="M208" s="85"/>
       <c r="N208" s="85"/>
     </row>
-    <row r="209" spans="1:14" ht="13.15">
+    <row r="209" spans="1:14" ht="12.75">
       <c r="A209" s="85"/>
       <c r="B209" s="85"/>
       <c r="C209" s="85"/>
@@ -8928,7 +8918,7 @@
       <c r="M209" s="85"/>
       <c r="N209" s="85"/>
     </row>
-    <row r="210" spans="1:14" ht="13.15">
+    <row r="210" spans="1:14" ht="12.75">
       <c r="A210" s="85"/>
       <c r="B210" s="85"/>
       <c r="C210" s="85"/>
@@ -8944,7 +8934,7 @@
       <c r="M210" s="85"/>
       <c r="N210" s="85"/>
     </row>
-    <row r="211" spans="1:14" ht="13.15">
+    <row r="211" spans="1:14" ht="12.75">
       <c r="A211" s="85"/>
       <c r="B211" s="85"/>
       <c r="C211" s="85"/>
@@ -9006,7 +8996,7 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.15">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="103"/>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -9138,18 +9128,18 @@
       <c r="C22" s="104"/>
       <c r="D22" s="104"/>
     </row>
-    <row r="23" spans="1:4" ht="13.9">
+    <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="D23" s="78" t="s">
         <v>376</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="D23" s="78" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30.75" customHeight="1">
@@ -9242,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="55.15">
+    <row r="29" spans="1:4" ht="51">
       <c r="A29" s="79" t="str">
         <f>Вводные!B9</f>
         <v>Забор из металл. жалюзей 2ух стороннего окраса, z-образные, толщина 0,45мм, высота 2м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 80х80х2мм шаг 2.2м с пластиковыми заглушками. Каркас в покраске Краской Хаммерайт 3 в 1</v>
@@ -9260,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.9">
+    <row r="30" spans="1:4" ht="12.75">
       <c r="A30" s="82">
         <f>Вводные!B10</f>
         <v>0</v>
@@ -9278,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="55.15">
+    <row r="31" spans="1:4" ht="51">
       <c r="A31" s="79" t="str">
         <f>Вводные!B11</f>
         <v>Забор из профнастила одностороннего окраса, толщина 0,4мм, высота 1,5м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9296,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="55.15">
+    <row r="32" spans="1:4" ht="51">
       <c r="A32" s="79" t="str">
         <f>Вводные!B12</f>
         <v>Забор из профнастила одностороннего окраса, толщина 0,4мм, высота 1,8м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9314,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="55.15">
+    <row r="33" spans="1:4" ht="51">
       <c r="A33" s="79" t="str">
         <f>Вводные!B13</f>
         <v>Забор из профнастила, одностороннего окраса, толщина 0,4мм, высота 2м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9332,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="55.15">
+    <row r="34" spans="1:4" ht="51">
       <c r="A34" s="79" t="str">
         <f>Вводные!B14</f>
         <v>Забор из профнастила одностороннего окраса, толщина 0,4мм, высота 2,2м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9350,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="55.15">
+    <row r="35" spans="1:4" ht="51">
       <c r="A35" s="79" t="str">
         <f>Вводные!B15</f>
         <v>Забор из профнастила одностороннего окраса, толщина 0,4мм, высота 2,5м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 3 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9368,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="55.15">
+    <row r="36" spans="1:4" ht="51">
       <c r="A36" s="79" t="str">
         <f>Вводные!B16</f>
         <v>Забор из профнастила двухстороннего окраса, толщина 0,4мм, высота 1,8м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9386,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="55.15">
+    <row r="37" spans="1:4" ht="51">
       <c r="A37" s="79" t="str">
         <f>Вводные!B17</f>
         <v>Забор из профнастила двухстороннего окраса, толщина 0,4мм, высота 2м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9404,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="55.15">
+    <row r="38" spans="1:4" ht="51">
       <c r="A38" s="79" t="str">
         <f>Вводные!B18</f>
         <v>Забор из профнастила двухстороннего окраса, толщина 0,4мм, высота 2,2м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9422,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="55.15">
+    <row r="39" spans="1:4" ht="51">
       <c r="A39" s="79" t="str">
         <f>Вводные!B19</f>
         <v>Забор из профнастила двухстороннего окраса, толщина 0,4мм, высота 2,5м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 3 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9440,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="55.15">
+    <row r="40" spans="1:4" ht="51">
       <c r="A40" s="79" t="str">
         <f>Вводные!B20</f>
         <v>Забор из профнастила одностороннего окраса, толщина 0,4мм, высота 3м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 80х80х2мм шаг 2.5м с пластиковыми заглушками. Лаги 3 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9458,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="55.15">
+    <row r="41" spans="1:4" ht="51">
       <c r="A41" s="79" t="str">
         <f>Вводные!B21</f>
         <v>Забор из профнастила двухстороннего окраса, толщина 0,4мм, высота 3м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 80х80х2мм шаг 2.5м с пластиковыми заглушками. Лаги 3 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9476,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.9">
+    <row r="42" spans="1:4" ht="12.75">
       <c r="A42" s="82">
         <f>Вводные!B22</f>
         <v>0</v>
@@ -9494,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="55.15">
+    <row r="43" spans="1:4" ht="51">
       <c r="A43" s="79" t="str">
         <f>Вводные!B23</f>
         <v>Забор из профнастила одностороннего окраса, горизонтальная установка, толщина 0,4мм, высота 1,8м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9512,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="55.15">
+    <row r="44" spans="1:4" ht="51">
       <c r="A44" s="79" t="str">
         <f>Вводные!B24</f>
         <v>Забор из профнастила одностороннего окраса, горизонтальная установка, толщина 0,4мм, высота 2м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9530,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="55.15">
+    <row r="45" spans="1:4" ht="51">
       <c r="A45" s="79" t="str">
         <f>Вводные!B25</f>
         <v>Забор из профнастила двухстороннего окраса, горизонтальная установка, толщина 0,4мм, высота 1,8м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9548,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="55.15">
+    <row r="46" spans="1:4" ht="51">
       <c r="A46" s="79" t="str">
         <f>Вводные!B26</f>
         <v>Забор из профнастила двухстороннего окраса, горизонтальная установка, толщина 0,4мм, высота 2м, цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2 шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9566,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.9">
+    <row r="47" spans="1:4" ht="12.75">
       <c r="A47" s="82">
         <f>Вводные!B27</f>
         <v>0</v>
@@ -9584,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="55.15">
+    <row r="48" spans="1:4" ht="51">
       <c r="A48" s="79" t="str">
         <f>Вводные!B28</f>
         <v>Забор из евроштакетника одностороннего окраса, толщина 0,4мм, высота 1.5м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы  КЛИЕНТА . Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9602,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="55.15">
+    <row r="49" spans="1:4" ht="51">
       <c r="A49" s="79" t="str">
         <f>Вводные!B29</f>
         <v>Забор из евроштакетника одностороннего окраса, толщина 0,4мм, высота 1.8м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9620,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="55.15">
+    <row r="50" spans="1:4" ht="51">
       <c r="A50" s="79" t="str">
         <f>Вводные!B30</f>
         <v>Забор из евроштакетника одностороннего окраса, толщина 0,4мм, высота 2м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9638,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="55.15">
+    <row r="51" spans="1:4" ht="51">
       <c r="A51" s="79" t="str">
         <f>Вводные!B31</f>
         <v>Забор из евроштакетника одностороннего окраса, толщина 0,4мм, высота 2.2м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9656,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="55.15">
+    <row r="52" spans="1:4" ht="51">
       <c r="A52" s="79" t="str">
         <f>Вводные!B32</f>
         <v>Забор из евроштакетника одностороннего окраса, толщина 0,4мм, высота 2.5м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 3шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9674,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="55.15">
+    <row r="53" spans="1:4" ht="51">
       <c r="A53" s="79" t="str">
         <f>Вводные!B33</f>
         <v>Забор из евроштакетника двухстороннего окраса, толщина 0,4мм, высота 1.5м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9692,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="55.15">
+    <row r="54" spans="1:4" ht="51">
       <c r="A54" s="79" t="str">
         <f>Вводные!B34</f>
         <v>Забор из евроштакетника двухстороннего окраса, толщина 0,4мм, высота 1.8м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9710,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="55.15">
+    <row r="55" spans="1:4" ht="51">
       <c r="A55" s="79" t="str">
         <f>Вводные!B35</f>
         <v>Забор из евроштакетника двухстороннего окраса, толщина 0,4мм, высота 2м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9728,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="55.15">
+    <row r="56" spans="1:4" ht="51">
       <c r="A56" s="79" t="str">
         <f>Вводные!B36</f>
         <v>Забор из евроштакетника двухстороннего окраса, толщина 0,4мм, высота 2.2м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9746,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="55.15">
+    <row r="57" spans="1:4" ht="51">
       <c r="A57" s="79" t="str">
         <f>Вводные!B37</f>
         <v>Забор из евроштакетника двухстороннего окраса, толщина 0,4мм, высота 2.5м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 3шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9764,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="55.15">
+    <row r="58" spans="1:4" ht="51">
       <c r="A58" s="79" t="str">
         <f>Вводные!B38</f>
         <v>Забор из евроштакетника двухстороннего окраса, толщина 0,4мм, высота 3м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 4шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9782,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.9">
+    <row r="59" spans="1:4" ht="12.75">
       <c r="A59" s="82">
         <f>Вводные!B39</f>
         <v>0</v>
@@ -9800,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="69">
+    <row r="60" spans="1:4" ht="63.75">
       <c r="A60" s="79" t="str">
         <f>Вводные!B40</f>
         <v>Забор из евроштакетника одностороннего окраса, горизонтальная установка, толщина 0,4мм, высота 1.8м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9818,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="69">
+    <row r="61" spans="1:4" ht="63.75">
       <c r="A61" s="79" t="str">
         <f>Вводные!B41</f>
         <v>Забор из евроштакетника одностороннего окраса, горизонтальная установка, толщина 0,4мм, высота 2м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9836,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="69">
+    <row r="62" spans="1:4" ht="63.75">
       <c r="A62" s="79" t="str">
         <f>Вводные!B42</f>
         <v>Забор из евроштакетника двухстороннего окраса, горизонтальная установка, толщина 0,4мм, высота 1.8м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9854,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="69">
+    <row r="63" spans="1:4" ht="63.75">
       <c r="A63" s="79" t="str">
         <f>Вводные!B43</f>
         <v>Забор из евроштакетника двухстороннего окраса, горизонтальная установка, толщина 0,4мм, высота 2м, зазор между штакетником 3см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9872,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.9">
+    <row r="64" spans="1:4" ht="12.75">
       <c r="A64" s="82">
         <f>Вводные!B44</f>
         <v>0</v>
@@ -9890,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="69">
+    <row r="65" spans="1:4" ht="63.75">
       <c r="A65" s="79" t="str">
         <f>Вводные!B45</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка, толщина 0,4мм, высота 1.5м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9908,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="69">
+    <row r="66" spans="1:4" ht="63.75">
       <c r="A66" s="79" t="str">
         <f>Вводные!B46</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка, толщина 0,4мм, высота 1.8м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9926,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="69">
+    <row r="67" spans="1:4" ht="63.75">
       <c r="A67" s="79" t="str">
         <f>Вводные!B47</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка, толщина 0,4мм, высота 2м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9944,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="69">
+    <row r="68" spans="1:4" ht="63.75">
       <c r="A68" s="79" t="str">
         <f>Вводные!B48</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка, толщина 0,4мм, высота 2.2м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9962,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="69">
+    <row r="69" spans="1:4" ht="63.75">
       <c r="A69" s="79" t="str">
         <f>Вводные!B49</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка, толщина 0,4мм, высота 2.5м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 3шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9980,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="69">
+    <row r="70" spans="1:4" ht="63.75">
       <c r="A70" s="79" t="str">
         <f>Вводные!B50</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка горизонтально, толщина 0,4мм, высота 1.5м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -9998,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="69">
+    <row r="71" spans="1:4" ht="63.75">
       <c r="A71" s="79" t="str">
         <f>Вводные!B51</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка горизонтально, толщина 0,4мм, высота 1.8м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -10016,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="69">
+    <row r="72" spans="1:4" ht="63.75">
       <c r="A72" s="79" t="str">
         <f>Вводные!B52</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка горизонтально, толщина 0,4мм, высота 2м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -10034,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="69">
+    <row r="73" spans="1:4" ht="63.75">
       <c r="A73" s="79" t="str">
         <f>Вводные!B53</f>
         <v>Забор из евроштакетника двухстороннего окраса шахматная установка горизонтально, толщина 0,4мм, высота 3м, зазор между штакетником 6см цвет вишня / зеленый мох / шоколад / графит / серый. Столбы 60х60х2мм шаг 2.5м с пластиковыми заглушками. Лаги 2шт 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -10106,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="69">
+    <row r="77" spans="1:4" ht="63.75">
       <c r="A77" s="79" t="str">
         <f>Вводные!B57</f>
         <v>Забор из деревянного штакетника 14 на 2.5 торцы скошены либо прямые, монтаж шахматкой установкой (материал планкен сорт А лиственница) покраска 2 слоями Alpina Aqua Lasur "ОРЕХ" структура дерева проступает, Н- 2м, зазор 60мм. Саморезы по металлу с пресс шайбой Столбы 80х80х2мм шаг 2.5м с пластиковыми заглушками. Лаги 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -10124,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="41.45">
+    <row r="78" spans="1:4" ht="38.25">
       <c r="A78" s="79" t="str">
         <f>Вводные!B58</f>
         <v>Забор из деревянного штакетника в 1 ряд, высота 2м,покраска  2 слоями Alpina Aqua Lasur "ОРЕХ", без зазора . Столбы клиента . Лаги 40х20х1.5мм. Каркас в грунтовке серый или красно-коричневый</v>
@@ -10142,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13.9">
+    <row r="79" spans="1:4" ht="12.75">
       <c r="A79" s="82">
         <f>Вводные!B59</f>
         <v>0</v>
@@ -10160,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="41.45">
+    <row r="80" spans="1:4" ht="51">
       <c r="A80" s="79" t="str">
         <f>Вводные!B60</f>
         <v>Забор из сетки рабица, ячейка 55x55x1,8мм, Н-1.5м. Столбы 60х40х1,5мм, протяжка из арматуры в 1 ряд 10мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая.</v>
@@ -10178,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="41.45">
+    <row r="81" spans="1:4" ht="51">
       <c r="A81" s="79" t="str">
         <f>Вводные!B61</f>
         <v>Забор из сетки рабица, ячейка 55x55x1,8мм, Н-1.5м. Столбы 60х40х1,5мм, протяжка из арматуры в 2 ряда 10мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая</v>
@@ -10196,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="41.45">
+    <row r="82" spans="1:4" ht="51">
       <c r="A82" s="79" t="str">
         <f>Вводные!B62</f>
         <v>Забор из сетки рабица, ячейка 55x55x1,8мм, Н-1.8м. Столбы 60х40х1,5мм, протяжка из арматуры в 1 ряд 10мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая</v>
@@ -10214,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="41.45">
+    <row r="83" spans="1:4" ht="51">
       <c r="A83" s="79" t="str">
         <f>Вводные!B63</f>
         <v>Забор из сетки рабица, ячейка 55x55x1,8мм, Н-1.8м. Столбы 60х40х1,5мм, протяжка из арматуры 2 ряда 10мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая</v>
@@ -10232,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="41.45">
+    <row r="84" spans="1:4" ht="38.25">
       <c r="A84" s="79" t="str">
         <f>Вводные!B64</f>
         <v>Забор из сетки рабица, ячейка 55x55x1,8мм, Н-2м. Столбы 60х40х1,5мм, протяжка из арматуры в 1 ряд 10мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая</v>
@@ -10250,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="41.45">
+    <row r="85" spans="1:4" ht="38.25">
       <c r="A85" s="79" t="str">
         <f>Вводные!B65</f>
         <v>Забор из сетки рабица, ячейка 55x55x1,8мм, Н-2м. Столбы 60х40х1,5мм, протяжка из арматуры в 2 ряда 10мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая</v>
@@ -10268,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="41.45">
+    <row r="86" spans="1:4" ht="38.25">
       <c r="A86" s="79" t="str">
         <f>Вводные!B66</f>
         <v>Забор из сетки рабица в раме, ячейка 55x55x1,8мм, Н-1.5м. Столбы 60х40х1,5мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая.</v>
@@ -10286,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="41.45">
+    <row r="87" spans="1:4" ht="38.25">
       <c r="A87" s="79" t="str">
         <f>Вводные!B67</f>
         <v>Забор из сетки рабица в раме, ячейка 55x55x1,8мм, Н-1.8м. Столбы 60х40х1,5мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая.</v>
@@ -10304,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="41.45">
+    <row r="88" spans="1:4" ht="38.25">
       <c r="A88" s="79" t="str">
         <f>Вводные!B68</f>
         <v>Забор из сетки рабица в раме, ячейка 55x55x1,8мм, Н-2м. Столбы 60х40х1,5мм, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки. Грунтовка каркаса серая или красно-коричневая.</v>
@@ -10322,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13.9">
+    <row r="89" spans="1:4" ht="12.75">
       <c r="A89" s="82">
         <f>Вводные!B69</f>
         <v>0</v>
@@ -10340,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="55.15">
+    <row r="90" spans="1:4" ht="51">
       <c r="A90" s="79" t="str">
         <f>Вводные!B70</f>
         <v>Забор из 3D панели 200x55 мм с полимерным покрытием цвет RAL 6005, толщина прутка 4мм, Н-1,53м, крепление на скобы. Столбы 60х60х2мм. Окрашены в RAL 6005 краской грунт-эмаль по металлу 3 в 1 Dali, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки</v>
@@ -10358,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="55.15">
+    <row r="91" spans="1:4" ht="51">
       <c r="A91" s="79" t="str">
         <f>Вводные!B71</f>
         <v>Забор из 3D панели 200x55 мм с полимерным покрытием цвет RAL 6005, толщина прутка 4мм, Н-1,73м, крепление на скобы. Столбы 60х60х2мм. Окрашены в RAL 6005 краской грунт-эмаль по металлу 3 в 1 Dali, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки</v>
@@ -10376,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="55.15">
+    <row r="92" spans="1:4" ht="51">
       <c r="A92" s="79" t="str">
         <f>Вводные!B72</f>
         <v>Забор из 3D панели 200x55 мм с полимерным покрытием цвет RAL 7024, толщина прутка 4мм, Н-2,03м, крепление на скобы. Столбы 60х60х2мм. Окрашены в RAL 7024 краской грунт-эмаль по металлу 3 в 1 Dali, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки</v>
@@ -10394,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="55.15">
+    <row r="93" spans="1:4" ht="51">
       <c r="A93" s="79" t="str">
         <f>Вводные!B73</f>
         <v>Забор из 3D панели 200x55 мм с полимерным покрытием цвет RAL 7024, толщина прутка 4мм, Н-1,53м, крепление на скобы. Столбы 60х60х2мм. Окрашены в RAL 7024 краской грунт-эмаль по металлу 3 в 1 Dali, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки</v>
@@ -10412,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="55.15">
+    <row r="94" spans="1:4" ht="51">
       <c r="A94" s="79" t="str">
         <f>Вводные!B74</f>
         <v>Забор из 3D панели 200x55 мм с полимерным покрытием цвет RAL 7024, толщина прутка 4мм, Н-1,73м, крепление на скобы. Столбы 60х60х2мм. Окрашены в RAL 7024 краской грунт-эмаль по металлу 3 в 1 Dali, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки</v>
@@ -10430,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="55.15">
+    <row r="95" spans="1:4" ht="51">
       <c r="A95" s="79" t="str">
         <f>Вводные!B75</f>
         <v>Забор из 3D панели 200x55 мм с полимерным покрытием цвет RAL 7024, толщина прутка 4мм, Н-2,03м, крепление на скобы. Столбы 60х60х2мм. Окрашены в RAL 7024 краской грунт-эмаль по металлу 3 в 1 Dali, заглубление столбов на 1м, шаг между столбами 2,5м. На столбах заглушки</v>
@@ -10448,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13.9">
+    <row r="96" spans="1:4" ht="12.75">
       <c r="A96" s="82">
         <f>Вводные!B76</f>
         <v>0</v>
@@ -10466,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="55.15">
+    <row r="97" spans="1:4" ht="51">
       <c r="A97" s="79" t="str">
         <f>Вводные!B77</f>
         <v>Каркас калитки, каркас 40x20x1,5мм, ширина 1м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10484,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="55.15">
+    <row r="98" spans="1:4" ht="51">
       <c r="A98" s="79" t="str">
         <f>Вводные!B78</f>
         <v>Каркас калитки, каркас 40x20x1,5мм, ширина 1м, высота 2,2/2,5м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10502,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="55.15">
+    <row r="99" spans="1:4" ht="51">
       <c r="A99" s="79" t="str">
         <f>Вводные!B79</f>
         <v>Каркас калитки, каркас 40x20x1,5мм, ширина 1м, высота 3м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10520,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="55.15">
+    <row r="100" spans="1:4" ht="51">
       <c r="A100" s="79" t="str">
         <f>Вводные!B80</f>
         <v>Каркас калитки в раме, каркас 40x20x1,5мм, ширина 1м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10538,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="55.15">
+    <row r="101" spans="1:4" ht="51">
       <c r="A101" s="79" t="str">
         <f>Вводные!B81</f>
         <v>Каркас калитки в раме, каркас 40x20x1,5мм, ширина 1м, высота 2,2/2,5м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10556,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="55.15">
+    <row r="102" spans="1:4" ht="51">
       <c r="A102" s="79" t="str">
         <f>Вводные!B82</f>
         <v>Каркас калитки в раме, каркас 40x20x1,5мм, ширина 1м, высота 3м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10574,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="55.15">
+    <row r="103" spans="1:4" ht="51">
       <c r="A103" s="79" t="str">
         <f>Вводные!B83</f>
         <v>Каркас калитки в раме, каркас 60x40x1,5мм, ширина 1м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10592,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="55.15">
+    <row r="104" spans="1:4" ht="51">
       <c r="A104" s="79" t="str">
         <f>Вводные!B84</f>
         <v>Каркас калитки в раме, каркас 60x40x1,5мм, ширина 1м, высота 2,2/2,5м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10610,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="55.15">
+    <row r="105" spans="1:4" ht="51">
       <c r="A105" s="79" t="str">
         <f>Вводные!B85</f>
         <v>Каркас калитки в раме, каркас 60x40x1,5мм, ширина 1м, высота 3м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: ручки с 2ух сторон, проушины под навесной замок снаружи, щеколда изнутри</v>
@@ -10628,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="55.15">
+    <row r="106" spans="1:4" ht="51">
       <c r="A106" s="79" t="str">
         <f>Вводные!B86</f>
         <v>Каркас ворот распашных, каркас 40x20x1,5мм, ширина 3 / 3,5 / 4м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10646,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="55.15">
+    <row r="107" spans="1:4" ht="51">
       <c r="A107" s="79" t="str">
         <f>Вводные!B87</f>
         <v>Каркас ворот распашных, каркас 40x20x1,5мм, ширина 3 / 3,5 / 4м, высота 2,2/2,5м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10664,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="51">
       <c r="A108" s="79" t="str">
         <f>Вводные!B88</f>
         <v>Каркас ворот распашных, каркас 40x20x1,5мм, ширина 3 / 3,5 / 4м, высота 3м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10682,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="55.15">
+    <row r="109" spans="1:4" ht="51">
       <c r="A109" s="79" t="str">
         <f>Вводные!B89</f>
         <v>Каркас ворот распашных в раме, каркас 40x20x1,5мм, ширина 3 / 3,5 / 4м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10754,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="55.15">
+    <row r="113" spans="1:4" ht="51">
       <c r="A113" s="79" t="str">
         <f>Вводные!B93</f>
         <v>Каркас ворот распашных в раме, каркас 60x40x1,5мм, ширина 3 / 3,5 / 4м, высота 2,2/2,5м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10772,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="55.15">
+    <row r="114" spans="1:4" ht="51">
       <c r="A114" s="79" t="str">
         <f>Вводные!B94</f>
         <v>Каркас ворот распашных в раме, каркас 60x40x1,5мм, ширина 3 / 3,5 / 4м, высота 3м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10790,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="55.15">
+    <row r="115" spans="1:4" ht="51">
       <c r="A115" s="79" t="str">
         <f>Вводные!B95</f>
         <v>Каркас ворот распашных в раме под автоматику, каркас 60x40x1,5мм, ширина 3 / 3,5 / 4м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10808,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="55.15">
+    <row r="116" spans="1:4" ht="51">
       <c r="A116" s="79" t="str">
         <f>Вводные!B96</f>
         <v>Каркас ворот распашных в раме, каркас 60x40x1,5мм, ширина 5м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10826,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="55.15">
+    <row r="117" spans="1:4" ht="51">
       <c r="A117" s="79" t="str">
         <f>Вводные!B97</f>
         <v>Каркас ворот распашных в раме, каркас 60x40x1,5мм, ширина 6м, высота 1,8/2м. Столбы 100х100х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Фурнитура: стопоры в землю, проушины под навесной замок изнутри, запирающее устройство «гусь» изнутри</v>
@@ -10844,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="69">
+    <row r="118" spans="1:4" ht="63.75">
       <c r="A118" s="79" t="str">
         <f>Вводные!B98</f>
         <v>Каркас ворот откатных , каркас 60х40х1,5мм, наполнение 40х20х1,5мм. Ширина 3 / 3,5 / 4м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Установка механизма на винтовые сваи 2 шт, диаметр 89 мм, длина 2м. Механическая часть - Ролтек Эко. Фурнитура: проушины под навесной замок изнутри, запирающее устройство изнутри</v>
@@ -10862,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="69">
+    <row r="119" spans="1:4" ht="76.5">
       <c r="A119" s="79" t="str">
         <f>Вводные!B99</f>
         <v>Каркас ворот откатных , каркас 60х40х1,5мм, наполнение 40х20х1,5мм. Ширина 3 / 3,5 / 4м, высота 2,2/2,5м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Установка механизма на винтовые сваи 2 шт, диаметр 89 мм, длина 2м. Механическая часть - Ролтек Эко. Фурнитура: проушины под навесной замок изнутри, запирающее устройство изнутри</v>
@@ -10880,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="69">
+    <row r="120" spans="1:4" ht="63.75">
       <c r="A120" s="79" t="str">
         <f>Вводные!B100</f>
         <v>Каркас ворот откатных, каркас 60х40х2мм, наполнение 40х20х2мм. Ширина 4,5 / 5м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Установка механизма на винтовые сваи 2 шт, диаметр 89 мм, длина 2м. Механическая часть - Ролтек Эко. Фурнитура: проушины под навесной замок изнутри, запирающее устройство изнутри</v>
@@ -10898,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="69">
+    <row r="121" spans="1:4" ht="63.75">
       <c r="A121" s="79" t="str">
         <f>Вводные!B101</f>
         <v>Каркас ворот откатных , каркас 60х40х1,5мм, наполнение 40х20х1,5мм. Ширина 4,5м, высота 3м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Установка механизма на винтовые сваи 2 шт, диаметр 89 мм, длина 2м. Механическая часть - Ролтек Эко. Фурнитура: проушины под навесной замок изнутри, запирающее устройство изнутри</v>
@@ -10916,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="69">
+    <row r="122" spans="1:4" ht="63.75">
       <c r="A122" s="79" t="str">
         <f>Вводные!B102</f>
         <v>Каркас ворот откатных, каркас 60х40х1,5мм, наполнение 40х20х1,5мм. Ширина 6м, высота 1,8/2м. Столбы 80х80х3мм с пластиковыми заглушками. Каркас в грунтовке серый или красно-коричневый. Установка механизма на винтовые сваи 2 шт, диаметр 89 мм, длина 2м. Механическая часть - Ролтек Эко. Фурнитура: проушины под навесной замок изнутри, запирающее устройство изнутри</v>
@@ -10934,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13.9">
+    <row r="123" spans="1:4" ht="12.75">
       <c r="A123" s="82">
         <f>Вводные!B103</f>
         <v>0</v>
@@ -10952,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="27.6">
+    <row r="124" spans="1:4" ht="25.5">
       <c r="A124" s="79" t="str">
         <f>Вводные!B104</f>
         <v xml:space="preserve">Автоматика Nice RB 400. Комплект (радиоприемник OXI, пульт Flo2RS 2шт, сигнальная лампа Lucy, фотоэлементы) </v>
@@ -10970,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="27.6">
+    <row r="125" spans="1:4" ht="25.5">
       <c r="A125" s="79" t="str">
         <f>Вводные!B105</f>
         <v xml:space="preserve">Автоматика Nice RB 600. Комплект (радиоприемник OXI, пульт Flo2RS 2шт, сигнальная лампа Lucy, фотоэлементы) </v>
@@ -10988,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="27.6">
+    <row r="126" spans="1:4" ht="25.5">
       <c r="A126" s="79" t="str">
         <f>Вводные!B106</f>
         <v xml:space="preserve">Автоматика Nice RB 1000. Комплект (радиоприемник OXI, пульт Flo2RS 2шт, сигнальная лампа Lucy, фотоэлементы) </v>
@@ -11006,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="27.6">
+    <row r="127" spans="1:4" ht="25.5">
       <c r="A127" s="79" t="str">
         <f>Вводные!B107</f>
         <v>Автоматика WINGO4024BDKCE (Привод WG4024 (2 шт.), блок управления MC424L, фотоэлементы EPM, лампа ELDC, приемник OXIBD, пульт ON3EBD (2 шт.))</v>
@@ -11024,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13.9">
+    <row r="128" spans="1:4" ht="12.75">
       <c r="A128" s="79" t="str">
         <f>Вводные!B108</f>
         <v>Замок врезной Apecs с ручками</v>
@@ -11042,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="13.9">
+    <row r="129" spans="1:4" ht="12.75">
       <c r="A129" s="79" t="str">
         <f>Вводные!B109</f>
         <v>Замок накладной Титан</v>
@@ -11060,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="13.9">
+    <row r="130" spans="1:4" ht="12.75">
       <c r="A130" s="79" t="str">
         <f>Вводные!B110</f>
         <v xml:space="preserve">Покраска столбов и лаг грунт-эмаль 3 в 1 по металлу Dali </v>
@@ -11078,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="13.9">
+    <row r="131" spans="1:4" ht="12.75">
       <c r="A131" s="79" t="str">
         <f>Вводные!B111</f>
         <v>Покраска столбов краской грунт-эмаль 3 в 1 по металлу Dali</v>
@@ -11096,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="13.9">
+    <row r="132" spans="1:4" ht="12.75">
       <c r="A132" s="79" t="str">
         <f>Вводные!B112</f>
         <v>Обработка нижней части столбов мастикой от коррозии</v>
@@ -11114,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="13.9">
+    <row r="133" spans="1:4" ht="25.5">
       <c r="A133" s="79" t="str">
         <f>Вводные!B113</f>
         <v>Покраска столбов и лаг грунт-эмаль 3 в 1 по металлу Hammerite / Kovali полуглянец</v>
@@ -11132,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="13.9">
+    <row r="134" spans="1:4" ht="12.75">
       <c r="A134" s="79" t="str">
         <f>Вводные!B114</f>
         <v>Покраска столбов и лаг порошковой краской</v>
@@ -11150,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="13.9">
+    <row r="135" spans="1:4" ht="12.75">
       <c r="A135" s="79" t="str">
         <f>Вводные!B115</f>
         <v>Увеличение толщины листа с 0.4мм до 0.45мм</v>
@@ -11168,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="13.9">
+    <row r="136" spans="1:4" ht="12.75">
       <c r="A136" s="79" t="str">
         <f>Вводные!B116</f>
         <v>Увеличение толщины листа с 0.4мм до 0.5мм</v>
@@ -11186,7 +11176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="13.9">
+    <row r="137" spans="1:4" ht="12.75">
       <c r="A137" s="79" t="str">
         <f>Вводные!B117</f>
         <v>Замена профнастила с С-8 на С-20</v>
@@ -11204,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="13.9">
+    <row r="138" spans="1:4" ht="12.75">
       <c r="A138" s="79" t="str">
         <f>Вводные!B118</f>
         <v>Замена профнастила с С-8 на С-21</v>
@@ -11222,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="13.9">
+    <row r="139" spans="1:4" ht="12.75">
       <c r="A139" s="79" t="str">
         <f>Вводные!B119</f>
         <v>Увеличение толщины штакетника с 0.4мм до 0.45мм</v>
@@ -11240,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="13.9">
+    <row r="140" spans="1:4" ht="12.75">
       <c r="A140" s="79" t="str">
         <f>Вводные!B120</f>
         <v>Увеличение толщины штакетника с 0.4мм до 0.5мм</v>
@@ -11258,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="13.9">
+    <row r="141" spans="1:4" ht="12.75">
       <c r="A141" s="79" t="str">
         <f>Вводные!B121</f>
         <v>Уменьшение зазора штакетника с 3см до 2см</v>
@@ -11276,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="13.9">
+    <row r="142" spans="1:4" ht="12.75">
       <c r="A142" s="79" t="str">
         <f>Вводные!B122</f>
         <v>Уменьшение зазора штакетника с 3см до 1см</v>
@@ -11294,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="13.9">
+    <row r="143" spans="1:4" ht="12.75">
       <c r="A143" s="79" t="str">
         <f>Вводные!B123</f>
         <v>Уменьшение зазора штакетника шахматной установки с 6см до 5см</v>
@@ -11312,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="13.9">
+    <row r="144" spans="1:4" ht="12.75">
       <c r="A144" s="79" t="str">
         <f>Вводные!B124</f>
         <v>Увеличение толщины столбов 60х60 с 2мм до 3мм</v>
@@ -11330,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="13.9">
+    <row r="145" spans="1:4" ht="12.75">
       <c r="A145" s="79" t="str">
         <f>Вводные!B125</f>
         <v xml:space="preserve">Увеличение заглубления столбов с 1.2м до 1.5м </v>
@@ -11348,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="13.9">
+    <row r="146" spans="1:4" ht="12.75">
       <c r="A146" s="79" t="str">
         <f>Вводные!B126</f>
         <v>Замена столбов с 60х60х2мм на 80х80х2мм</v>
@@ -11366,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="13.9">
+    <row r="147" spans="1:4" ht="12.75">
       <c r="A147" s="79" t="str">
         <f>Вводные!B127</f>
         <v>Замена столбов с 60х60х2мм на 100х100х2мм</v>
@@ -11384,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13.9">
+    <row r="148" spans="1:4" ht="12.75">
       <c r="A148" s="79" t="str">
         <f>Вводные!B128</f>
         <v>Столбы наружу, стиль Американка</v>
@@ -11402,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13.9">
+    <row r="149" spans="1:4" ht="12.75">
       <c r="A149" s="79" t="str">
         <f>Вводные!B129</f>
         <v>Укосина на столб</v>
@@ -11420,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="13.9">
+    <row r="150" spans="1:4" ht="12.75">
       <c r="A150" s="79" t="str">
         <f>Вводные!B130</f>
         <v>Забутовка столбов щебнем на глубину 1м</v>
@@ -11438,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13.9">
+    <row r="151" spans="1:4" ht="12.75">
       <c r="A151" s="79" t="str">
         <f>Вводные!B131</f>
         <v>Увеличение толщины 2ух рядов лаг 40х20 c 1,5 мм до 2мм</v>
@@ -11456,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13.9">
+    <row r="152" spans="1:4" ht="12.75">
       <c r="A152" s="79" t="str">
         <f>Вводные!B132</f>
         <v>Дополнительный ряд лаг 40х20х1.5мм. Грунтовка серая или красно-коричневая</v>
@@ -11474,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13.9">
+    <row r="153" spans="1:4" ht="12.75">
       <c r="A153" s="79" t="str">
         <f>Вводные!B133</f>
         <v>Верхняя балка на откатные ворота</v>
@@ -11492,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13.9">
+    <row r="154" spans="1:4" ht="12.75">
       <c r="A154" s="79" t="str">
         <f>Вводные!B134</f>
         <v>Декоративная планка металлическая на забор</v>
@@ -11510,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13.9">
+    <row r="155" spans="1:4" ht="12.75">
       <c r="A155" s="79" t="str">
         <f>Вводные!B135</f>
         <v>Декоративная планка металлическая на забор (шахматка)</v>
@@ -11528,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13.9">
+    <row r="156" spans="1:4" ht="12.75">
       <c r="A156" s="79" t="str">
         <f>Вводные!B136</f>
         <v>Монтаж забора столбы и лаги, профнастил, высота 2м. Материал клиента</v>
@@ -11546,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.9">
+    <row r="157" spans="1:4" ht="12.75">
       <c r="A157" s="79" t="str">
         <f>Вводные!B137</f>
         <v>Монтаж забора столбы и лаги, штакетник, высота 2м. Материал клиента</v>
@@ -11564,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="27.6">
+    <row r="158" spans="1:4" ht="25.5">
       <c r="A158" s="79" t="str">
         <f>Вводные!B138</f>
         <v>Монтаж забора столбы и лаги, штакетник шахматной установкой, высота 2м. Материал клиента</v>
@@ -11582,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="13.9">
+    <row r="159" spans="1:4" ht="12.75">
       <c r="A159" s="79" t="str">
         <f>Вводные!B139</f>
         <v>Обшивка профнастилом (материал клиента) на установленный каркас забора</v>
@@ -11600,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13.9">
+    <row r="160" spans="1:4" ht="12.75">
       <c r="A160" s="79" t="str">
         <f>Вводные!B140</f>
         <v>Обшивка штакетником в 1 ряд (материал клиента) на установленный каркас забора</v>
@@ -11618,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="27.6">
+    <row r="161" spans="1:4" ht="25.5">
       <c r="A161" s="79" t="str">
         <f>Вводные!B141</f>
         <v>Обшивка штакетником шахматный порядок (материал клиента) на установленный каркас забора</v>
@@ -11636,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="13.9">
+    <row r="162" spans="1:4" ht="12.75">
       <c r="A162" s="79" t="str">
         <f>Вводные!B142</f>
         <v>Установка откатных ворот клиента на винтовые сваи (материал клиента)</v>
@@ -11654,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="13.9">
+    <row r="163" spans="1:4" ht="12.75">
       <c r="A163" s="79" t="str">
         <f>Вводные!B143</f>
         <v>Установка распашных ворот клиента (материал клиента)</v>
@@ -11672,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="13.9">
+    <row r="164" spans="1:4" ht="12.75">
       <c r="A164" s="79" t="str">
         <f>Вводные!B144</f>
         <v>Установка автоматики без подключения</v>
@@ -11690,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="13.9">
+    <row r="165" spans="1:4" ht="12.75">
       <c r="A165" s="79" t="str">
         <f>Вводные!B145</f>
         <v>Столб из пикс панелей двухсторонний в 1,5 кладки. H-2м</v>
@@ -11708,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="13.9">
+    <row r="166" spans="1:4" ht="12.75">
       <c r="A166" s="79" t="str">
         <f>Вводные!B146</f>
         <v>Сетка оцинкованная сварная под забор от животных</v>
@@ -11726,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="13.9">
+    <row r="167" spans="1:4" ht="12.75">
       <c r="A167" s="79" t="str">
         <f>Вводные!B147</f>
         <v>Проведение электрики на столб</v>
@@ -11744,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="13.9">
+    <row r="168" spans="1:4" ht="12.75">
       <c r="A168" s="79" t="str">
         <f>Вводные!B148</f>
         <v>Подключение электрики на откатных воротах</v>
@@ -11762,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="13.9">
+    <row r="169" spans="1:4" ht="12.75">
       <c r="A169" s="79" t="str">
         <f>Вводные!B149</f>
         <v>Аренда спецтехники</v>
@@ -11780,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="13.9">
+    <row r="170" spans="1:4" ht="12.75">
       <c r="A170" s="82">
         <f>Вводные!B150</f>
         <v>0</v>
@@ -11798,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="27.6">
+    <row r="171" spans="1:4" ht="25.5">
       <c r="A171" s="79" t="str">
         <f>Вводные!B151</f>
         <v>Ленточный фундамент. 30-35 см уходит в землю, 15-20 см над землей, ширина 25 см, под ней подсыпка песком (подушка) 10-15см</v>
@@ -11816,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="27.6">
+    <row r="172" spans="1:4" ht="25.5">
       <c r="A172" s="79" t="str">
         <f>Вводные!B152</f>
         <v>Ленточный фундамент. 30-35 см уходит в землю, 15-20 см над землей, ширина 40 см, под ней подсыпка песком (подушка) 10-15см</v>
@@ -11834,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="27.6">
+    <row r="173" spans="1:4" ht="25.5">
       <c r="A173" s="79" t="str">
         <f>Вводные!B153</f>
         <v>Ленточный фундамент в штукатурке. 30-35 см уходит в землю, 15-20 см над землей, ширина 40 см, под ней подсыпка песком (подушка) 10-15см</v>
@@ -11852,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="27.6">
+    <row r="174" spans="1:4" ht="25.5">
       <c r="A174" s="79" t="str">
         <f>Вводные!B154</f>
         <v xml:space="preserve">Кирпичный столб 380х380мм, цвет красный / персик / солома в 1.5 кладки. Высота 2м </v>
@@ -11870,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="27.6">
+    <row r="175" spans="1:4" ht="25.5">
       <c r="A175" s="79" t="str">
         <f>Вводные!B155</f>
         <v xml:space="preserve">Кирпичный столб 380х380мм, цвет красный / персик / солома в 1.5 кладки. Высота 2,5м </v>
@@ -11888,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="13.9">
+    <row r="176" spans="1:4" ht="12.75">
       <c r="A176" s="79" t="str">
         <f>Вводные!B156</f>
         <v xml:space="preserve">Кирпичный столб 380х380мм, нестандартный цвет в 1.5 кладки. Высота 2м </v>
@@ -11906,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="13.9">
+    <row r="177" spans="1:4" ht="12.75">
       <c r="A177" s="79" t="str">
         <f>Вводные!B157</f>
         <v>Кирпичный столб из колотого кирпича 380х380. Высота 2м</v>
@@ -11924,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="13.9">
+    <row r="178" spans="1:4" ht="12.75">
       <c r="A178" s="79" t="str">
         <f>Вводные!B158</f>
         <v xml:space="preserve">Блочный столб БУТ 400х400мм. Высота 2м </v>
@@ -11942,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="13.9">
+    <row r="179" spans="1:4" ht="12.75">
       <c r="A179" s="79" t="str">
         <f>Вводные!B159</f>
         <v>Столб из бетонных блоков с декоративной штукатуркой. Высота 2м.Рамер 400х400</v>
@@ -11960,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="13.9">
+    <row r="180" spans="1:4" ht="12.75">
       <c r="A180" s="79" t="str">
         <f>Вводные!B160</f>
         <v>Кирпичная кладка на ленточный фундамент в 2 ряда двойная</v>
@@ -11978,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="13.9">
+    <row r="181" spans="1:4" ht="12.75">
       <c r="A181" s="79" t="str">
         <f>Вводные!B161</f>
         <v>Кирпичная кладка на ленточный фундамент в 3 ряда двойная</v>
@@ -11996,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="13.9">
+    <row r="182" spans="1:4" ht="12.75">
       <c r="A182" s="79" t="str">
         <f>Вводные!B162</f>
         <v>Кирпичная кладка на ленточный фундамент в 5 рядов двойная</v>
@@ -12014,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="13.9">
+    <row r="183" spans="1:4" ht="12.75">
       <c r="A183" s="79" t="str">
         <f>Вводные!B163</f>
         <v>Кладка блоков БУТ на ленточный фундамент в 1 ряд</v>
@@ -12032,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="13.9">
+    <row r="184" spans="1:4" ht="12.75">
       <c r="A184" s="79" t="str">
         <f>Вводные!B164</f>
         <v xml:space="preserve">Кладка на ленточный фундамент из колотого кирпича в 2 ряда </v>
@@ -12050,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="13.9">
+    <row r="185" spans="1:4" ht="12.75">
       <c r="A185" s="79" t="str">
         <f>Вводные!B165</f>
         <v xml:space="preserve">Кладка на ленточный фундамент из колотого кирпича в 3 ряда </v>
@@ -12068,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="13.9">
+    <row r="186" spans="1:4" ht="12.75">
       <c r="A186" s="79" t="str">
         <f>Вводные!B166</f>
         <v>Кладка на ленточный фундамент из колотого кирпича в 5 рядов</v>
@@ -12086,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="13.9">
+    <row r="187" spans="1:4" ht="12.75">
       <c r="A187" s="79" t="str">
         <f>Вводные!B167</f>
         <v>ЖБ свая под кирпичный / блочный столб. на 1.5м. в землю</v>
@@ -12104,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="13.9">
+    <row r="188" spans="1:4" ht="12.75">
       <c r="A188" s="79" t="str">
         <f>Вводные!B168</f>
         <v>Винтовая свая d-76мм. Длина 2м.</v>
@@ -12122,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="13.9">
+    <row r="189" spans="1:4" ht="12.75">
       <c r="A189" s="79" t="str">
         <f>Вводные!B169</f>
         <v>Винтовая свая d-89мм. Длина 2м.</v>
@@ -12140,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="13.9">
+    <row r="190" spans="1:4" ht="12.75">
       <c r="A190" s="79" t="str">
         <f>Вводные!B170</f>
         <v>Винтовая свая d-89мм. Длина 2,5м.</v>
@@ -12158,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="13.9">
+    <row r="191" spans="1:4" ht="12.75">
       <c r="A191" s="79" t="str">
         <f>Вводные!B171</f>
         <v>Винтовая свая d-108мм. Длина 2м.</v>
@@ -12176,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="13.9">
+    <row r="192" spans="1:4" ht="12.75">
       <c r="A192" s="79" t="str">
         <f>Вводные!B172</f>
         <v>Винтовая свая d-108мм. Длина 3м.</v>
@@ -12194,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13.9">
+    <row r="193" spans="1:4" ht="12.75">
       <c r="A193" s="79" t="str">
         <f>Вводные!B173</f>
         <v>Колпак декоративный металлический на кирпичный столб</v>
@@ -12212,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="13.9">
+    <row r="194" spans="1:4" ht="12.75">
       <c r="A194" s="79" t="str">
         <f>Вводные!B174</f>
         <v>Колпак декоративный бетонный на блочный столб</v>
@@ -12230,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="13.9">
+    <row r="195" spans="1:4" ht="12.75">
       <c r="A195" s="79" t="str">
         <f>Вводные!B175</f>
         <v>Отлив декоративный металлический на фундамент</v>
@@ -12248,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="13.9">
+    <row r="196" spans="1:4" ht="12.75">
       <c r="A196" s="79" t="str">
         <f>Вводные!B176</f>
         <v>Отлив декоративный бетонный на фундамент</v>
@@ -12266,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="27.6">
+    <row r="197" spans="1:4" ht="25.5">
       <c r="A197" s="79" t="str">
         <f>Вводные!B177</f>
         <v>Залитие бетонной тумбы "под откатную" вместо винтовых свай. Параметры бетонной тумбы 200х140х40</v>
@@ -12284,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="13.9">
+    <row r="198" spans="1:4" ht="12.75">
       <c r="A198" s="79" t="str">
         <f>Вводные!B178</f>
         <v xml:space="preserve">Бетонирование столбов </v>
@@ -12302,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="13.9">
+    <row r="199" spans="1:4" ht="12.75">
       <c r="A199" s="82">
         <f>Вводные!B179</f>
         <v>0</v>
@@ -12320,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="96.6">
+    <row r="200" spans="1:4" ht="89.25">
       <c r="A200" s="79" t="str">
         <f>Вводные!B180</f>
         <v>Навес c покрытием из поликарбоната:
@@ -12343,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="96.6">
+    <row r="201" spans="1:4" ht="89.25">
       <c r="A201" s="79" t="str">
         <f>Вводные!B181</f>
         <v xml:space="preserve">Навес c покрытием из профнастила:
@@ -12366,7 +12356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="96.6">
+    <row r="202" spans="1:4" ht="89.25">
       <c r="A202" s="79" t="str">
         <f>Вводные!B182</f>
         <v>Навес c покрытием из металлочерепицы:
@@ -12389,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="110.45">
+    <row r="203" spans="1:4" ht="102">
       <c r="A203" s="79" t="str">
         <f>Вводные!B183</f>
         <v>Навес с покрытием из гибкой черепицы. Столбы 80х80х3 мм, шаг столбов не более 2м. 
@@ -12412,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="13.9">
+    <row r="204" spans="1:4" ht="12.75">
       <c r="A204" s="82">
         <f>Вводные!B184</f>
         <v>0</v>
@@ -12430,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="13.9">
+    <row r="205" spans="1:4" ht="12.75">
       <c r="A205" s="82" t="str">
         <f>Вводные!B185</f>
         <v>Доставка материала</v>
@@ -12443,12 +12433,12 @@
         <f>Вводные!D185</f>
         <v>0</v>
       </c>
-      <c r="D205" s="81">
+      <c r="D205" s="81" t="e">
         <f>Вводные!F185</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="13.9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="12.75">
       <c r="A206" s="82" t="str">
         <f>Вводные!B186</f>
         <v>Доставка откатной</v>
@@ -12461,15 +12451,15 @@
         <f>Вводные!D186</f>
         <v>0</v>
       </c>
-      <c r="D206" s="81">
+      <c r="D206" s="81" t="e">
         <f>Вводные!F186</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="13.9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="12.75">
       <c r="A207" s="82" t="str">
         <f>Вводные!B187</f>
-        <v>Монтажные работы</v>
+        <v>Наценка</v>
       </c>
       <c r="B207" s="80" t="str">
         <f>Вводные!C187</f>
@@ -12484,10 +12474,10 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="13.9">
+    <row r="208" spans="1:4" ht="12.75">
       <c r="A208" s="82" t="str">
         <f>Вводные!B188</f>
-        <v>Скидка</v>
+        <v>Монтажные работы</v>
       </c>
       <c r="B208" s="80" t="str">
         <f>Вводные!C188</f>
@@ -12502,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="13.9">
+    <row r="209" spans="1:4" ht="12.75">
       <c r="A209" s="82" t="str">
         <f>Вводные!B189</f>
         <v xml:space="preserve">Не стандартный цвет  </v>
@@ -12515,12 +12505,12 @@
         <f>Вводные!D189</f>
         <v>0</v>
       </c>
-      <c r="D209" s="81" t="e">
+      <c r="D209" s="81">
         <f>Вводные!F189</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="13.9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="12.75">
       <c r="A210" s="82" t="str">
         <f>Вводные!B190</f>
         <v>Верхняя  стяжка на ворота съемная</v>
@@ -12538,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="13.9">
+    <row r="211" spans="1:4" ht="12.75">
       <c r="A211" s="82" t="str">
         <f>Вводные!B191</f>
         <v>Шаг 2 метра между столбами</v>
@@ -12556,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="13.9">
+    <row r="212" spans="1:4" ht="12.75">
       <c r="A212" s="82" t="str">
         <f>Вводные!B192</f>
         <v>Увеличение толщины столбов до 3мм и лаг до 2мм</v>
@@ -12574,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="13.9">
+    <row r="213" spans="1:4" ht="12.75">
       <c r="A213" s="82" t="str">
         <f>Вводные!B193</f>
         <v>Цвет под дерево</v>
@@ -12592,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="13.9">
+    <row r="214" spans="1:4" ht="12.75">
       <c r="A214" s="82" t="str">
         <f>Вводные!B194</f>
         <v>Наращивание столба</v>
@@ -12610,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="13.9">
+    <row r="215" spans="1:4" ht="12.75">
       <c r="A215" s="82">
         <f>Вводные!B195</f>
         <v>0</v>
@@ -12628,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="13.9">
+    <row r="216" spans="1:4" ht="12.75">
       <c r="A216" s="82">
         <f>Вводные!B196</f>
         <v>0</v>
@@ -12646,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="13.9">
+    <row r="217" spans="1:4" ht="12.75">
       <c r="A217" s="82">
         <f>Вводные!B197</f>
         <v>0</v>
@@ -12664,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="13.9">
+    <row r="218" spans="1:4" ht="12.75">
       <c r="A218" s="82">
         <f>Вводные!B198</f>
         <v>0</v>
@@ -12682,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="13.9">
+    <row r="219" spans="1:4" ht="12.75">
       <c r="A219" s="82">
         <f>Вводные!B199</f>
         <v>0</v>
@@ -12700,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="13.9">
+    <row r="220" spans="1:4" ht="12.75">
       <c r="A220" s="82">
         <f>Вводные!B200</f>
         <v>0</v>
@@ -12718,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="13.9">
+    <row r="221" spans="1:4" ht="12.75">
       <c r="A221" s="82">
         <f>Вводные!B201</f>
         <v>0</v>
@@ -12754,25 +12744,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="13.15">
+    <row r="223" spans="1:4" ht="12.75">
       <c r="A223" s="83"/>
       <c r="B223" s="83"/>
       <c r="C223" s="83"/>
       <c r="D223" s="83"/>
     </row>
-    <row r="224" spans="1:4" ht="13.15">
+    <row r="224" spans="1:4" ht="12.75">
       <c r="A224" s="85"/>
       <c r="B224" s="85"/>
       <c r="C224" s="85"/>
       <c r="D224" s="85"/>
     </row>
-    <row r="225" spans="1:4" ht="13.15">
+    <row r="225" spans="1:4" ht="12.75">
       <c r="A225" s="85"/>
       <c r="B225" s="85"/>
       <c r="C225" s="85"/>
       <c r="D225" s="85"/>
     </row>
-    <row r="226" spans="1:4" ht="13.15">
+    <row r="226" spans="1:4" ht="12.75">
       <c r="A226" s="84" t="s">
         <v>85</v>
       </c>
@@ -12780,7 +12770,7 @@
       <c r="C226" s="85"/>
       <c r="D226" s="85"/>
     </row>
-    <row r="227" spans="1:4" ht="13.15">
+    <row r="227" spans="1:4" ht="12.75">
       <c r="A227" s="85"/>
       <c r="B227" s="85"/>
       <c r="C227" s="85"/>
